--- a/Form Fields/Polyline content.xlsx
+++ b/Form Fields/Polyline content.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgood\Documents\Projects\strabo-documents\Form Fields\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="712" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="12780" tabRatio="712" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="polyline categories" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <sheet name="contact character" sheetId="4" r:id="rId8"/>
     <sheet name="Notes" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -261,6 +266,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -592,24 +605,24 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -629,27 +642,27 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -672,29 +685,29 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -717,49 +730,49 @@
       <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -779,62 +792,62 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -857,109 +870,109 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -979,37 +992,37 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1032,29 +1045,29 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1077,9 +1090,9 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
